--- a/星期二分享后台数据库字典.xlsx
+++ b/星期二分享后台数据库字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="242">
   <si>
     <t>中文含义</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -956,6 +956,30 @@
   </si>
   <si>
     <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二次分享上级用户奖励ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk_superUser_rewardTmp_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1314,16 +1338,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J95"/>
+  <dimension ref="A1:J96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87:XFD87"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.875" customWidth="1"/>
-    <col min="2" max="2" width="24.125" customWidth="1"/>
+    <col min="2" max="2" width="26.25" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="5" width="10.875" customWidth="1"/>
     <col min="6" max="6" width="12.375" customWidth="1"/>
@@ -2035,33 +2059,33 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>236</v>
       </c>
       <c r="B35" t="s">
-        <v>126</v>
+        <v>237</v>
       </c>
       <c r="C35" t="s">
-        <v>127</v>
+        <v>238</v>
       </c>
       <c r="D35" t="s">
-        <v>53</v>
+        <v>239</v>
       </c>
       <c r="E35" t="s">
-        <v>51</v>
+        <v>240</v>
       </c>
       <c r="F35" t="s">
-        <v>111</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="D36" t="s">
         <v>53</v>
@@ -2075,13 +2099,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="D37" t="s">
         <v>53</v>
@@ -2095,13 +2119,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C38" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="D38" t="s">
         <v>53</v>
@@ -2115,103 +2139,100 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
         <v>216</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>217</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>218</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D40" t="s">
         <v>213</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E40" t="s">
         <v>213</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F40" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" t="s">
-        <v>76</v>
-      </c>
-      <c r="F42" t="s">
-        <v>3</v>
-      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>82</v>
-      </c>
-      <c r="E43" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="F43" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>210</v>
+        <v>114</v>
       </c>
       <c r="B44" t="s">
-        <v>211</v>
+        <v>115</v>
       </c>
       <c r="C44" t="s">
-        <v>212</v>
+        <v>71</v>
       </c>
       <c r="D44" t="s">
-        <v>213</v>
+        <v>82</v>
       </c>
       <c r="E44" t="s">
-        <v>213</v>
+        <v>51</v>
       </c>
       <c r="F44" t="s">
-        <v>214</v>
-      </c>
-      <c r="G44" t="s">
-        <v>215</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B45" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C45" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D45" t="s">
         <v>213</v>
@@ -2220,64 +2241,70 @@
         <v>213</v>
       </c>
       <c r="F45" t="s">
+        <v>214</v>
+      </c>
+      <c r="G45" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>216</v>
+      </c>
+      <c r="B46" t="s">
+        <v>217</v>
+      </c>
+      <c r="C46" t="s">
+        <v>218</v>
+      </c>
+      <c r="D46" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47" s="1" t="s">
+      <c r="E46" t="s">
+        <v>213</v>
+      </c>
+      <c r="F46" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48" t="s">
-        <v>76</v>
-      </c>
-      <c r="F48" t="s">
-        <v>3</v>
-      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>124</v>
+        <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F49" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C50" t="s">
-        <v>20</v>
-      </c>
-      <c r="E50" t="s">
+        <v>124</v>
+      </c>
+      <c r="D50" t="s">
         <v>81</v>
       </c>
       <c r="F50" t="s">
@@ -2286,13 +2313,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C51" t="s">
-        <v>125</v>
+        <v>20</v>
+      </c>
+      <c r="E51" t="s">
+        <v>81</v>
       </c>
       <c r="F51" t="s">
         <v>53</v>
@@ -2300,16 +2330,13 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B52" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
-      </c>
-      <c r="E52" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="F52" t="s">
         <v>53</v>
@@ -2317,91 +2344,94 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" t="s">
+        <v>84</v>
+      </c>
+      <c r="F53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
         <v>216</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>217</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" t="s">
         <v>218</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D54" t="s">
         <v>213</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E54" t="s">
         <v>213</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F54" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A55" s="1" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56" t="s">
-        <v>2</v>
-      </c>
-      <c r="D56" t="s">
-        <v>76</v>
-      </c>
-      <c r="F56" t="s">
-        <v>3</v>
-      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>131</v>
+        <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F57" t="s">
-        <v>78</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C58" t="s">
-        <v>133</v>
+        <v>70</v>
+      </c>
+      <c r="D58" t="s">
+        <v>110</v>
       </c>
       <c r="F58" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B59" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F59" t="s">
         <v>53</v>
@@ -2409,91 +2439,91 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
+        <v>130</v>
+      </c>
+      <c r="B60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" t="s">
+        <v>134</v>
+      </c>
+      <c r="F60" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
         <v>216</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>217</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" t="s">
         <v>218</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D61" t="s">
         <v>213</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E61" t="s">
         <v>213</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F61" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A62" s="1" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A63" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63" t="s">
-        <v>135</v>
-      </c>
-      <c r="D63" t="s">
-        <v>76</v>
-      </c>
-      <c r="F63" t="s">
-        <v>3</v>
-      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>148</v>
+        <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="D64" t="s">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="F64" t="s">
-        <v>206</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B65" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C65" t="s">
-        <v>149</v>
+        <v>20</v>
+      </c>
+      <c r="D65" t="s">
+        <v>152</v>
       </c>
       <c r="F65" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B66" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F66" t="s">
         <v>201</v>
@@ -2501,41 +2531,41 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B67" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="F67" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B68" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C68" t="s">
         <v>8</v>
       </c>
       <c r="F68" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B69" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C69" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="F69" t="s">
         <v>206</v>
@@ -2543,97 +2573,94 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
+        <v>142</v>
+      </c>
+      <c r="B70" t="s">
+        <v>143</v>
+      </c>
+      <c r="C70" t="s">
+        <v>151</v>
+      </c>
+      <c r="F70" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
         <v>216</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>217</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C71" t="s">
         <v>218</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D71" t="s">
         <v>213</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E71" t="s">
         <v>213</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F71" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A72" s="1" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A73" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" t="s">
-        <v>1</v>
-      </c>
-      <c r="C73" t="s">
-        <v>135</v>
-      </c>
-      <c r="D73" t="s">
-        <v>76</v>
-      </c>
-      <c r="F73" t="s">
-        <v>3</v>
-      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="B74" t="s">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="D74" t="s">
-        <v>201</v>
+        <v>76</v>
       </c>
       <c r="F74" t="s">
-        <v>205</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="B75" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C75" t="s">
-        <v>183</v>
-      </c>
-      <c r="E75" t="s">
+        <v>184</v>
+      </c>
+      <c r="D75" t="s">
         <v>201</v>
       </c>
       <c r="F75" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B76" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C76" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E76" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F76" t="s">
         <v>206</v>
@@ -2641,150 +2668,150 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B77" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C77" t="s">
-        <v>178</v>
+        <v>182</v>
+      </c>
+      <c r="E77" t="s">
+        <v>202</v>
       </c>
       <c r="F77" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B78" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C78" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F78" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B79" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C79" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F79" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B80" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C80" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F80" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B81" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C81" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F81" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
+        <v>160</v>
+      </c>
+      <c r="B82" t="s">
+        <v>177</v>
+      </c>
+      <c r="C82" t="s">
+        <v>178</v>
+      </c>
+      <c r="F82" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
         <v>216</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>217</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C83" t="s">
         <v>218</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D83" t="s">
         <v>213</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E83" t="s">
         <v>213</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F83" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A84" s="1" t="s">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A85" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A85" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85" t="s">
-        <v>1</v>
-      </c>
-      <c r="C85" t="s">
-        <v>135</v>
-      </c>
-      <c r="D85" t="s">
-        <v>76</v>
-      </c>
-      <c r="F85" t="s">
-        <v>3</v>
-      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="B86" t="s">
-        <v>185</v>
+        <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>194</v>
+        <v>135</v>
       </c>
       <c r="D86" t="s">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="F86" t="s">
-        <v>206</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B87" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C87" t="s">
         <v>194</v>
       </c>
-      <c r="E87" t="s">
-        <v>201</v>
+      <c r="D87" t="s">
+        <v>200</v>
       </c>
       <c r="F87" t="s">
         <v>206</v>
@@ -2792,10 +2819,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B88" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="C88" t="s">
         <v>194</v>
@@ -2804,130 +2831,147 @@
         <v>201</v>
       </c>
       <c r="F88" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B89" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="C89" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E89" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F89" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B90" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C90" t="s">
-        <v>196</v>
+        <v>195</v>
+      </c>
+      <c r="E90" t="s">
+        <v>203</v>
       </c>
       <c r="F90" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B91" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C91" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F91" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B92" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C92" t="s">
-        <v>198</v>
-      </c>
-      <c r="E92" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F92" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B93" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C93" t="s">
-        <v>199</v>
+        <v>198</v>
+      </c>
+      <c r="E93" t="s">
+        <v>203</v>
       </c>
       <c r="F93" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="B94" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C94" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F94" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
+        <v>193</v>
+      </c>
+      <c r="B95" t="s">
+        <v>192</v>
+      </c>
+      <c r="C95" t="s">
+        <v>196</v>
+      </c>
+      <c r="F95" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
         <v>216</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B96" t="s">
         <v>217</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C96" t="s">
         <v>218</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D96" t="s">
         <v>213</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E96" t="s">
         <v>213</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F96" t="s">
         <v>213</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A85:F85"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A56:F56"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/星期二分享后台数据库字典.xlsx
+++ b/星期二分享后台数据库字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="247">
   <si>
     <t>中文含义</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -980,6 +980,26 @@
   </si>
   <si>
     <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘钥表(tb_userShare)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1338,10 +1358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J96"/>
+  <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2961,8 +2981,39 @@
         <v>213</v>
       </c>
     </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A98" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
+        <v>246</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="A98:F98"/>
     <mergeCell ref="A63:F63"/>
     <mergeCell ref="A73:F73"/>
     <mergeCell ref="A85:F85"/>

--- a/星期二分享后台数据库字典.xlsx
+++ b/星期二分享后台数据库字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="258">
   <si>
     <t>中文含义</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -983,10 +983,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>秘钥表(tb_userShare)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>主键ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1000,6 +996,54 @@
   </si>
   <si>
     <t>有效期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘钥表(tb_token)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_tokenID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vr_appid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vr_token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dtm_tokenTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1360,8 +1404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2983,7 +3027,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -2993,22 +3037,61 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>243</v>
+        <v>242</v>
+      </c>
+      <c r="B99" t="s">
+        <v>247</v>
+      </c>
+      <c r="C99" t="s">
+        <v>254</v>
+      </c>
+      <c r="D99" t="s">
+        <v>255</v>
+      </c>
+      <c r="F99" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>244</v>
+        <v>243</v>
+      </c>
+      <c r="B100" t="s">
+        <v>248</v>
+      </c>
+      <c r="C100" t="s">
+        <v>253</v>
+      </c>
+      <c r="F100" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="B101" t="s">
+        <v>249</v>
+      </c>
+      <c r="C101" t="s">
+        <v>252</v>
+      </c>
+      <c r="F101" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>246</v>
+        <v>245</v>
+      </c>
+      <c r="B102" t="s">
+        <v>250</v>
+      </c>
+      <c r="C102" t="s">
+        <v>251</v>
+      </c>
+      <c r="F102" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/星期二分享后台数据库字典.xlsx
+++ b/星期二分享后台数据库字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="264">
   <si>
     <t>中文含义</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1036,6 +1036,30 @@
   </si>
   <si>
     <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1402,10 +1426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J102"/>
+  <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2241,85 +2265,82 @@
         <v>213</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>258</v>
+      </c>
+      <c r="B41" t="s">
+        <v>259</v>
+      </c>
+      <c r="C41" t="s">
+        <v>260</v>
+      </c>
+      <c r="D41" t="s">
+        <v>261</v>
+      </c>
+      <c r="E41" t="s">
+        <v>262</v>
+      </c>
+      <c r="F41" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" t="s">
-        <v>76</v>
-      </c>
-      <c r="F43" t="s">
-        <v>3</v>
-      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>82</v>
-      </c>
-      <c r="E44" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="F44" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>210</v>
+        <v>114</v>
       </c>
       <c r="B45" t="s">
-        <v>211</v>
+        <v>115</v>
       </c>
       <c r="C45" t="s">
-        <v>212</v>
+        <v>71</v>
       </c>
       <c r="D45" t="s">
-        <v>213</v>
+        <v>82</v>
       </c>
       <c r="E45" t="s">
-        <v>213</v>
+        <v>51</v>
       </c>
       <c r="F45" t="s">
-        <v>214</v>
-      </c>
-      <c r="G45" t="s">
-        <v>215</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B46" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C46" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D46" t="s">
         <v>213</v>
@@ -2328,64 +2349,70 @@
         <v>213</v>
       </c>
       <c r="F46" t="s">
+        <v>214</v>
+      </c>
+      <c r="G46" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>216</v>
+      </c>
+      <c r="B47" t="s">
+        <v>217</v>
+      </c>
+      <c r="C47" t="s">
+        <v>218</v>
+      </c>
+      <c r="D47" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48" s="1" t="s">
+      <c r="E47" t="s">
+        <v>213</v>
+      </c>
+      <c r="F47" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" t="s">
-        <v>76</v>
-      </c>
-      <c r="F49" t="s">
-        <v>3</v>
-      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>124</v>
+        <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F50" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E51" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51" t="s">
         <v>81</v>
       </c>
       <c r="F51" t="s">
@@ -2394,13 +2421,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C52" t="s">
-        <v>125</v>
+        <v>20</v>
+      </c>
+      <c r="E52" t="s">
+        <v>81</v>
       </c>
       <c r="F52" t="s">
         <v>53</v>
@@ -2408,16 +2438,13 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B53" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
-      </c>
-      <c r="E53" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="F53" t="s">
         <v>53</v>
@@ -2425,91 +2452,94 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54" t="s">
+        <v>84</v>
+      </c>
+      <c r="F54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
         <v>216</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>217</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>218</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D55" t="s">
         <v>213</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E55" t="s">
         <v>213</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F55" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A56" s="1" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" t="s">
-        <v>2</v>
-      </c>
-      <c r="D57" t="s">
-        <v>76</v>
-      </c>
-      <c r="F57" t="s">
-        <v>3</v>
-      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>131</v>
+        <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F58" t="s">
-        <v>78</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C59" t="s">
-        <v>133</v>
+        <v>70</v>
+      </c>
+      <c r="D59" t="s">
+        <v>110</v>
       </c>
       <c r="F59" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B60" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C60" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F60" t="s">
         <v>53</v>
@@ -2517,91 +2547,91 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
+        <v>130</v>
+      </c>
+      <c r="B61" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" t="s">
+        <v>134</v>
+      </c>
+      <c r="F61" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
         <v>216</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
         <v>217</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" t="s">
         <v>218</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D62" t="s">
         <v>213</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E62" t="s">
         <v>213</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F62" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A63" s="1" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A64" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64" t="s">
-        <v>135</v>
-      </c>
-      <c r="D64" t="s">
-        <v>76</v>
-      </c>
-      <c r="F64" t="s">
-        <v>3</v>
-      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>148</v>
+        <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
       <c r="D65" t="s">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="F65" t="s">
-        <v>206</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B66" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C66" t="s">
-        <v>149</v>
+        <v>20</v>
+      </c>
+      <c r="D66" t="s">
+        <v>152</v>
       </c>
       <c r="F66" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B67" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F67" t="s">
         <v>201</v>
@@ -2609,41 +2639,41 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B68" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="F68" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B69" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C69" t="s">
         <v>8</v>
       </c>
       <c r="F69" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B70" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C70" t="s">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="F70" t="s">
         <v>206</v>
@@ -2651,97 +2681,94 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" t="s">
+        <v>151</v>
+      </c>
+      <c r="F71" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
         <v>216</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>217</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" t="s">
         <v>218</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D72" t="s">
         <v>213</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E72" t="s">
         <v>213</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F72" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A73" s="1" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A74" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" t="s">
-        <v>1</v>
-      </c>
-      <c r="C74" t="s">
-        <v>135</v>
-      </c>
-      <c r="D74" t="s">
-        <v>76</v>
-      </c>
-      <c r="F74" t="s">
-        <v>3</v>
-      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="B75" t="s">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="D75" t="s">
-        <v>201</v>
+        <v>76</v>
       </c>
       <c r="F75" t="s">
-        <v>205</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="B76" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C76" t="s">
-        <v>183</v>
-      </c>
-      <c r="E76" t="s">
+        <v>184</v>
+      </c>
+      <c r="D76" t="s">
         <v>201</v>
       </c>
       <c r="F76" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B77" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C77" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E77" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F77" t="s">
         <v>206</v>
@@ -2749,150 +2776,150 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B78" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C78" t="s">
-        <v>178</v>
+        <v>182</v>
+      </c>
+      <c r="E78" t="s">
+        <v>202</v>
       </c>
       <c r="F78" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B79" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C79" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F79" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B80" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C80" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F80" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B81" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C81" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F81" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B82" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C82" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F82" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
+        <v>160</v>
+      </c>
+      <c r="B83" t="s">
+        <v>177</v>
+      </c>
+      <c r="C83" t="s">
+        <v>178</v>
+      </c>
+      <c r="F83" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
         <v>216</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
         <v>217</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C84" t="s">
         <v>218</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D84" t="s">
         <v>213</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E84" t="s">
         <v>213</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F84" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A85" s="1" t="s">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A86" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1</v>
-      </c>
-      <c r="C86" t="s">
-        <v>135</v>
-      </c>
-      <c r="D86" t="s">
-        <v>76</v>
-      </c>
-      <c r="F86" t="s">
-        <v>3</v>
-      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="B87" t="s">
-        <v>185</v>
+        <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>194</v>
+        <v>135</v>
       </c>
       <c r="D87" t="s">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="F87" t="s">
-        <v>206</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B88" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C88" t="s">
         <v>194</v>
       </c>
-      <c r="E88" t="s">
-        <v>201</v>
+      <c r="D88" t="s">
+        <v>200</v>
       </c>
       <c r="F88" t="s">
         <v>206</v>
@@ -2900,10 +2927,10 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B89" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="C89" t="s">
         <v>194</v>
@@ -2912,169 +2939,172 @@
         <v>201</v>
       </c>
       <c r="F89" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B90" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="C90" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E90" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F90" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B91" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C91" t="s">
-        <v>196</v>
+        <v>195</v>
+      </c>
+      <c r="E91" t="s">
+        <v>203</v>
       </c>
       <c r="F91" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B92" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C92" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F92" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B93" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C93" t="s">
-        <v>198</v>
-      </c>
-      <c r="E93" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F93" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B94" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C94" t="s">
-        <v>199</v>
+        <v>198</v>
+      </c>
+      <c r="E94" t="s">
+        <v>203</v>
       </c>
       <c r="F94" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="B95" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C95" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F95" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
+        <v>193</v>
+      </c>
+      <c r="B96" t="s">
+        <v>192</v>
+      </c>
+      <c r="C96" t="s">
+        <v>196</v>
+      </c>
+      <c r="F96" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
         <v>216</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B97" t="s">
         <v>217</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C97" t="s">
         <v>218</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D97" t="s">
         <v>213</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E97" t="s">
         <v>213</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F97" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A98" s="1" t="s">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A99" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A99" t="s">
-        <v>242</v>
-      </c>
-      <c r="B99" t="s">
-        <v>247</v>
-      </c>
-      <c r="C99" t="s">
-        <v>254</v>
-      </c>
-      <c r="D99" t="s">
-        <v>255</v>
-      </c>
-      <c r="F99" t="s">
-        <v>256</v>
-      </c>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B100" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C100" t="s">
-        <v>253</v>
+        <v>254</v>
+      </c>
+      <c r="D100" t="s">
+        <v>255</v>
       </c>
       <c r="F100" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B101" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C101" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F101" t="s">
         <v>257</v>
@@ -3082,30 +3112,44 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B102" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C102" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F102" t="s">
         <v>257</v>
       </c>
     </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
+        <v>245</v>
+      </c>
+      <c r="B103" t="s">
+        <v>250</v>
+      </c>
+      <c r="C103" t="s">
+        <v>251</v>
+      </c>
+      <c r="F103" t="s">
+        <v>257</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A86:F86"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A57:F57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/星期二分享后台数据库字典.xlsx
+++ b/星期二分享后台数据库字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="257">
   <si>
     <t>中文含义</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -687,14 +687,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分享奖励奖品ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分享奖品奖励数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pk_taskExecute_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -775,14 +767,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fk_shareReward_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dbl_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bit_grantReward</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -807,14 +791,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -840,10 +816,6 @@
   </si>
   <si>
     <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1426,10 +1398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J103"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:XFD41"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1507,42 +1479,42 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C4" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D4" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E4" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F4" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B5" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C5" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D5" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E5" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F5" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -1645,42 +1617,42 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C10" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D10" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E10" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F10" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B11" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C11" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D11" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E11" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F11" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -1960,42 +1932,42 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B24" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C24" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D24" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E24" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F24" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B25" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C25" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D25" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E25" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F25" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
@@ -2147,22 +2119,22 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B35" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C35" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D35" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E35" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F35" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
@@ -2247,42 +2219,42 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B40" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C40" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D40" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E40" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F40" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B41" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C41" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D41" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E41" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F41" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
@@ -2334,45 +2306,45 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B46" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C46" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D46" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E46" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F46" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G46" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B47" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C47" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D47" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E47" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F47" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
@@ -2469,22 +2441,22 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B55" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C55" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D55" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E55" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F55" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
@@ -2561,22 +2533,22 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B62" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C62" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D62" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E62" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F62" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
@@ -2620,7 +2592,7 @@
         <v>152</v>
       </c>
       <c r="F66" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
@@ -2634,7 +2606,7 @@
         <v>149</v>
       </c>
       <c r="F67" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
@@ -2648,7 +2620,7 @@
         <v>150</v>
       </c>
       <c r="F68" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
@@ -2662,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="F69" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
@@ -2676,7 +2648,7 @@
         <v>8</v>
       </c>
       <c r="F70" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
@@ -2690,27 +2662,27 @@
         <v>151</v>
       </c>
       <c r="F71" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B72" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C72" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D72" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E72" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F72" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
@@ -2745,16 +2717,16 @@
         <v>114</v>
       </c>
       <c r="B76" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C76" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D76" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F76" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
@@ -2762,16 +2734,16 @@
         <v>154</v>
       </c>
       <c r="B77" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C77" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E77" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F77" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
@@ -2779,16 +2751,16 @@
         <v>155</v>
       </c>
       <c r="B78" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C78" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E78" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F78" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
@@ -2796,13 +2768,13 @@
         <v>156</v>
       </c>
       <c r="B79" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C79" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F79" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
@@ -2810,13 +2782,13 @@
         <v>157</v>
       </c>
       <c r="B80" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C80" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F80" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
@@ -2824,13 +2796,13 @@
         <v>158</v>
       </c>
       <c r="B81" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C81" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F81" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
@@ -2838,13 +2810,13 @@
         <v>159</v>
       </c>
       <c r="B82" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C82" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F82" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
@@ -2852,33 +2824,33 @@
         <v>160</v>
       </c>
       <c r="B83" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C83" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F83" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B84" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C84" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D84" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E84" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F84" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
@@ -2913,16 +2885,16 @@
         <v>162</v>
       </c>
       <c r="B88" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C88" t="s">
+        <v>190</v>
+      </c>
+      <c r="D88" t="s">
         <v>194</v>
       </c>
-      <c r="D88" t="s">
+      <c r="F88" t="s">
         <v>200</v>
-      </c>
-      <c r="F88" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
@@ -2930,16 +2902,16 @@
         <v>163</v>
       </c>
       <c r="B89" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C89" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E89" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F89" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
@@ -2947,16 +2919,16 @@
         <v>164</v>
       </c>
       <c r="B90" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C90" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E90" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F90" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
@@ -2964,16 +2936,16 @@
         <v>165</v>
       </c>
       <c r="B91" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C91" t="s">
+        <v>191</v>
+      </c>
+      <c r="E91" t="s">
+        <v>197</v>
+      </c>
+      <c r="F91" t="s">
         <v>195</v>
-      </c>
-      <c r="E91" t="s">
-        <v>203</v>
-      </c>
-      <c r="F91" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
@@ -2981,13 +2953,13 @@
         <v>166</v>
       </c>
       <c r="B92" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C92" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F92" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
@@ -2995,152 +2967,121 @@
         <v>167</v>
       </c>
       <c r="B93" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C93" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F93" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="B94" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C94" t="s">
+        <v>192</v>
+      </c>
+      <c r="F94" t="s">
         <v>198</v>
-      </c>
-      <c r="E94" t="s">
-        <v>203</v>
-      </c>
-      <c r="F94" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="B95" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="C95" t="s">
-        <v>199</v>
+        <v>211</v>
+      </c>
+      <c r="D95" t="s">
+        <v>206</v>
+      </c>
+      <c r="E95" t="s">
+        <v>206</v>
       </c>
       <c r="F95" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A96" t="s">
-        <v>193</v>
-      </c>
-      <c r="B96" t="s">
-        <v>192</v>
-      </c>
-      <c r="C96" t="s">
-        <v>196</v>
-      </c>
-      <c r="F96" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A97" t="s">
-        <v>216</v>
-      </c>
-      <c r="B97" t="s">
-        <v>217</v>
-      </c>
-      <c r="C97" t="s">
-        <v>218</v>
-      </c>
-      <c r="D97" t="s">
-        <v>213</v>
-      </c>
-      <c r="E97" t="s">
-        <v>213</v>
-      </c>
-      <c r="F97" t="s">
-        <v>213</v>
+      <c r="A97" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>235</v>
+      </c>
+      <c r="B98" t="s">
+        <v>240</v>
+      </c>
+      <c r="C98" t="s">
+        <v>247</v>
+      </c>
+      <c r="D98" t="s">
+        <v>248</v>
+      </c>
+      <c r="F98" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A99" s="1" t="s">
+      <c r="A99" t="s">
+        <v>236</v>
+      </c>
+      <c r="B99" t="s">
+        <v>241</v>
+      </c>
+      <c r="C99" t="s">
         <v>246</v>
       </c>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
+      <c r="F99" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
+        <v>237</v>
+      </c>
+      <c r="B100" t="s">
         <v>242</v>
       </c>
-      <c r="B100" t="s">
-        <v>247</v>
-      </c>
       <c r="C100" t="s">
-        <v>254</v>
-      </c>
-      <c r="D100" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="F100" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
+        <v>238</v>
+      </c>
+      <c r="B101" t="s">
         <v>243</v>
       </c>
-      <c r="B101" t="s">
-        <v>248</v>
-      </c>
       <c r="C101" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="F101" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A102" t="s">
-        <v>244</v>
-      </c>
-      <c r="B102" t="s">
-        <v>249</v>
-      </c>
-      <c r="C102" t="s">
-        <v>252</v>
-      </c>
-      <c r="F102" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A103" t="s">
-        <v>245</v>
-      </c>
-      <c r="B103" t="s">
         <v>250</v>
-      </c>
-      <c r="C103" t="s">
-        <v>251</v>
-      </c>
-      <c r="F103" t="s">
-        <v>257</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="A97:F97"/>
     <mergeCell ref="A64:F64"/>
     <mergeCell ref="A74:F74"/>
     <mergeCell ref="A86:F86"/>

--- a/星期二分享后台数据库字典.xlsx
+++ b/星期二分享后台数据库字典.xlsx
@@ -1400,13 +1400,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="H98" sqref="H98"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29:O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.875" customWidth="1"/>
+    <col min="1" max="1" width="22.125" customWidth="1"/>
     <col min="2" max="2" width="26.25" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="5" width="10.875" customWidth="1"/>

--- a/星期二分享后台数据库字典.xlsx
+++ b/星期二分享后台数据库字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="268">
   <si>
     <t>中文含义</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -823,39 +823,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>模板名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvr_tmpName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>模板名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvr_tmpName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nvarchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>HXL2015.5.11加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit_isDelete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享内容ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk_share_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HXL2015.5.11加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bit_isDelete</t>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit_status</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -863,183 +895,195 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>是否允许继承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit_inherit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否继承任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit_isInherit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二次分享上级用户奖励ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk_superUser_rewardTmp_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘钥表(tb_token)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_tokenID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vr_appid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vr_token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dtm_tokenTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit_isApply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dtm_ApplyTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否申请发放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励申请时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励发放时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dtm_grantTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>分享内容ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fk_share_id</t>
+    <t>fk_shareContents_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bit_status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否允许继承</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bit_inherit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否继承任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bit_isInherit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二次分享上级用户奖励ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fk_superUser_rewardTmp_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>appid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秘钥表(tb_token)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk_tokenID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vr_appid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vr_token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dtm_tokenTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bit_status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1398,10 +1442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29:O39"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97:XFD97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1479,42 +1523,42 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4" t="s">
         <v>212</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>213</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>214</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>215</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>216</v>
-      </c>
-      <c r="F4" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" t="s">
         <v>218</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>219</v>
       </c>
-      <c r="C5" t="s">
-        <v>220</v>
-      </c>
       <c r="D5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -1617,42 +1661,42 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B10" t="s">
         <v>209</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>210</v>
       </c>
-      <c r="C10" t="s">
-        <v>211</v>
-      </c>
       <c r="D10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B11" t="s">
         <v>221</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>222</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>214</v>
+      </c>
+      <c r="E11" t="s">
         <v>223</v>
       </c>
-      <c r="D11" t="s">
-        <v>215</v>
-      </c>
-      <c r="E11" t="s">
-        <v>224</v>
-      </c>
       <c r="F11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -1932,42 +1976,42 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B24" t="s">
         <v>209</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>210</v>
       </c>
-      <c r="C24" t="s">
-        <v>211</v>
-      </c>
       <c r="D24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
+        <v>224</v>
+      </c>
+      <c r="B25" t="s">
         <v>225</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>226</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>214</v>
+      </c>
+      <c r="E25" t="s">
+        <v>223</v>
+      </c>
+      <c r="F25" t="s">
         <v>227</v>
-      </c>
-      <c r="D25" t="s">
-        <v>215</v>
-      </c>
-      <c r="E25" t="s">
-        <v>224</v>
-      </c>
-      <c r="F25" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
@@ -2119,22 +2163,22 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
+        <v>228</v>
+      </c>
+      <c r="B35" t="s">
         <v>229</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>230</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>231</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>232</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>233</v>
-      </c>
-      <c r="F35" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
@@ -2219,42 +2263,42 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
+        <v>208</v>
+      </c>
+      <c r="B40" t="s">
         <v>209</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>210</v>
       </c>
-      <c r="C40" t="s">
-        <v>211</v>
-      </c>
       <c r="D40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
+        <v>250</v>
+      </c>
+      <c r="B41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" t="s">
         <v>251</v>
       </c>
-      <c r="B41" t="s">
+      <c r="D41" t="s">
         <v>252</v>
       </c>
-      <c r="C41" t="s">
+      <c r="E41" t="s">
         <v>253</v>
       </c>
-      <c r="D41" t="s">
+      <c r="F41" t="s">
         <v>254</v>
-      </c>
-      <c r="E41" t="s">
-        <v>255</v>
-      </c>
-      <c r="F41" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
@@ -2306,45 +2350,45 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
+        <v>202</v>
+      </c>
+      <c r="B46" t="s">
         <v>203</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>204</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>205</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
+        <v>205</v>
+      </c>
+      <c r="F46" t="s">
         <v>206</v>
       </c>
-      <c r="E46" t="s">
-        <v>206</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>207</v>
-      </c>
-      <c r="G46" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
+        <v>208</v>
+      </c>
+      <c r="B47" t="s">
         <v>209</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>210</v>
       </c>
-      <c r="C47" t="s">
-        <v>211</v>
-      </c>
       <c r="D47" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E47" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F47" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
@@ -2441,22 +2485,22 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
+        <v>208</v>
+      </c>
+      <c r="B55" t="s">
         <v>209</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>210</v>
       </c>
-      <c r="C55" t="s">
-        <v>211</v>
-      </c>
       <c r="D55" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E55" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F55" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
@@ -2533,22 +2577,22 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
+        <v>208</v>
+      </c>
+      <c r="B62" t="s">
         <v>209</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>210</v>
       </c>
-      <c r="C62" t="s">
-        <v>211</v>
-      </c>
       <c r="D62" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E62" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F62" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
@@ -2667,22 +2711,22 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
+        <v>208</v>
+      </c>
+      <c r="B72" t="s">
         <v>209</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>210</v>
       </c>
-      <c r="C72" t="s">
-        <v>211</v>
-      </c>
       <c r="D72" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E72" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F72" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
@@ -2748,167 +2792,164 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>155</v>
+        <v>265</v>
       </c>
       <c r="B78" t="s">
-        <v>170</v>
+        <v>266</v>
       </c>
       <c r="C78" t="s">
-        <v>180</v>
-      </c>
-      <c r="E78" t="s">
-        <v>196</v>
+        <v>267</v>
       </c>
       <c r="F78" t="s">
-        <v>200</v>
+        <v>257</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B79" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C79" t="s">
-        <v>176</v>
+        <v>180</v>
+      </c>
+      <c r="E79" t="s">
+        <v>196</v>
       </c>
       <c r="F79" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B80" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C80" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F80" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B81" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C81" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F81" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B82" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C82" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F82" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B83" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C83" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F83" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
+        <v>160</v>
+      </c>
+      <c r="B84" t="s">
+        <v>175</v>
+      </c>
+      <c r="C84" t="s">
+        <v>176</v>
+      </c>
+      <c r="F84" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>208</v>
+      </c>
+      <c r="B85" t="s">
         <v>209</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C85" t="s">
         <v>210</v>
       </c>
-      <c r="C84" t="s">
-        <v>211</v>
-      </c>
-      <c r="D84" t="s">
-        <v>206</v>
-      </c>
-      <c r="E84" t="s">
-        <v>206</v>
-      </c>
-      <c r="F84" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A86" s="1" t="s">
+      <c r="D85" t="s">
+        <v>205</v>
+      </c>
+      <c r="E85" t="s">
+        <v>205</v>
+      </c>
+      <c r="F85" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A87" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1</v>
-      </c>
-      <c r="C87" t="s">
-        <v>135</v>
-      </c>
-      <c r="D87" t="s">
-        <v>76</v>
-      </c>
-      <c r="F87" t="s">
-        <v>3</v>
-      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="B88" t="s">
-        <v>183</v>
+        <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>190</v>
+        <v>135</v>
       </c>
       <c r="D88" t="s">
-        <v>194</v>
+        <v>76</v>
       </c>
       <c r="F88" t="s">
-        <v>200</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B89" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C89" t="s">
         <v>190</v>
       </c>
-      <c r="E89" t="s">
-        <v>195</v>
+      <c r="D89" t="s">
+        <v>194</v>
       </c>
       <c r="F89" t="s">
         <v>200</v>
@@ -2916,10 +2957,10 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B90" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="C90" t="s">
         <v>190</v>
@@ -2928,163 +2969,222 @@
         <v>195</v>
       </c>
       <c r="F90" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B91" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="C91" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E91" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F91" t="s">
-        <v>195</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B92" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C92" t="s">
-        <v>192</v>
+        <v>191</v>
+      </c>
+      <c r="E92" t="s">
+        <v>197</v>
       </c>
       <c r="F92" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B93" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C93" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F93" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="B94" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C94" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F94" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>209</v>
+        <v>260</v>
       </c>
       <c r="B95" t="s">
-        <v>210</v>
+        <v>255</v>
       </c>
       <c r="C95" t="s">
-        <v>211</v>
-      </c>
-      <c r="D95" t="s">
-        <v>206</v>
-      </c>
-      <c r="E95" t="s">
-        <v>206</v>
+        <v>256</v>
       </c>
       <c r="F95" t="s">
-        <v>206</v>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>261</v>
+      </c>
+      <c r="B96" t="s">
+        <v>258</v>
+      </c>
+      <c r="C96" t="s">
+        <v>16</v>
+      </c>
+      <c r="F96" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A97" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
+      <c r="A97" t="s">
+        <v>189</v>
+      </c>
+      <c r="B97" t="s">
+        <v>188</v>
+      </c>
+      <c r="C97" t="s">
+        <v>192</v>
+      </c>
+      <c r="F97" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="B98" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="C98" t="s">
-        <v>247</v>
-      </c>
-      <c r="D98" t="s">
-        <v>248</v>
+        <v>16</v>
       </c>
       <c r="F98" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
+        <v>208</v>
+      </c>
+      <c r="B99" t="s">
+        <v>209</v>
+      </c>
+      <c r="C99" t="s">
+        <v>210</v>
+      </c>
+      <c r="D99" t="s">
+        <v>205</v>
+      </c>
+      <c r="E99" t="s">
+        <v>205</v>
+      </c>
+      <c r="F99" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A101" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
+        <v>234</v>
+      </c>
+      <c r="B102" t="s">
+        <v>239</v>
+      </c>
+      <c r="C102" t="s">
+        <v>246</v>
+      </c>
+      <c r="D102" t="s">
+        <v>247</v>
+      </c>
+      <c r="F102" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
+        <v>235</v>
+      </c>
+      <c r="B103" t="s">
+        <v>240</v>
+      </c>
+      <c r="C103" t="s">
+        <v>245</v>
+      </c>
+      <c r="F103" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
         <v>236</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B104" t="s">
         <v>241</v>
       </c>
-      <c r="C99" t="s">
-        <v>246</v>
-      </c>
-      <c r="F99" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A100" t="s">
+      <c r="C104" t="s">
+        <v>244</v>
+      </c>
+      <c r="F104" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
         <v>237</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B105" t="s">
         <v>242</v>
       </c>
-      <c r="C100" t="s">
-        <v>245</v>
-      </c>
-      <c r="F100" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A101" t="s">
-        <v>238</v>
-      </c>
-      <c r="B101" t="s">
+      <c r="C105" t="s">
         <v>243</v>
       </c>
-      <c r="C101" t="s">
-        <v>244</v>
-      </c>
-      <c r="F101" t="s">
-        <v>250</v>
+      <c r="F105" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="A101:F101"/>
     <mergeCell ref="A64:F64"/>
     <mergeCell ref="A74:F74"/>
-    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="A87:F87"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A27:F27"/>

--- a/星期二分享后台数据库字典.xlsx
+++ b/星期二分享后台数据库字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="278">
   <si>
     <t>中文含义</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1084,6 +1084,46 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续分享表(tb_continuousShare)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务项ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最早开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最晚结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务执行时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1442,10 +1482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J105"/>
+  <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97:XFD97"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108:A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3179,8 +3219,64 @@
         <v>249</v>
       </c>
     </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A107" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A116" t="s">
+        <v>277</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A107:F107"/>
     <mergeCell ref="A101:F101"/>
     <mergeCell ref="A64:F64"/>
     <mergeCell ref="A74:F74"/>

--- a/星期二分享后台数据库字典.xlsx
+++ b/星期二分享后台数据库字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="300">
   <si>
     <t>中文含义</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -975,27 +975,235 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>vr_token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dtm_tokenTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit_isApply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dtm_ApplyTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否申请发放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励申请时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励发放时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dtm_grantTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享内容ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk_shareContents_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续分享表(tb_continuousShare)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务项ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最早开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最晚结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务执行时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_continuousShare_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk_user_Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk_task_Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk_taskItem_Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit_Execute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dtm_action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dtm_end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int_Interval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dtm_execute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>vr_appid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>vr_token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dtm_tokenTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务项序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1003,127 +1211,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bit_isApply</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dtm_ApplyTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否申请发放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励申请时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励发放时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dtm_grantTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分享内容ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fk_shareContents_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>连续分享表(tb_continuousShare)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务项ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最早开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最晚结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间间隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务执行时间</t>
+    <t>int_order</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1173,8 +1261,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1482,16 +1573,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J116"/>
+  <dimension ref="A1:J120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A108" sqref="A108:A116"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="F119" sqref="F115:F119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.125" customWidth="1"/>
-    <col min="2" max="2" width="26.25" customWidth="1"/>
+    <col min="2" max="2" width="30.875" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="5" width="10.875" customWidth="1"/>
     <col min="6" max="6" width="12.375" customWidth="1"/>
@@ -1500,14 +1591,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
@@ -1748,14 +1839,14 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
       <c r="I13" t="s">
         <v>16</v>
       </c>
@@ -2055,14 +2146,14 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
@@ -2323,33 +2414,33 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B41" t="s">
         <v>68</v>
       </c>
       <c r="C41" t="s">
+        <v>250</v>
+      </c>
+      <c r="D41" t="s">
         <v>251</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>252</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>253</v>
       </c>
-      <c r="F41" t="s">
-        <v>254</v>
-      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
@@ -2432,14 +2523,14 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
@@ -2544,14 +2635,14 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
@@ -2636,14 +2727,14 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
@@ -2770,14 +2861,14 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
@@ -2832,16 +2923,16 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
+        <v>264</v>
+      </c>
+      <c r="B78" t="s">
         <v>265</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>266</v>
       </c>
-      <c r="C78" t="s">
-        <v>267</v>
-      </c>
       <c r="F78" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
@@ -2952,14 +3043,14 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
@@ -3076,30 +3167,30 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B95" t="s">
+        <v>254</v>
+      </c>
+      <c r="C95" t="s">
         <v>255</v>
       </c>
-      <c r="C95" t="s">
+      <c r="F95" t="s">
         <v>256</v>
-      </c>
-      <c r="F95" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B96" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C96" t="s">
         <v>16</v>
       </c>
       <c r="F96" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
@@ -3118,16 +3209,16 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
+        <v>261</v>
+      </c>
+      <c r="B98" t="s">
         <v>262</v>
-      </c>
-      <c r="B98" t="s">
-        <v>263</v>
       </c>
       <c r="C98" t="s">
         <v>16</v>
       </c>
       <c r="F98" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
@@ -3151,142 +3242,288 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="B102" t="s">
-        <v>239</v>
+        <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>246</v>
+        <v>2</v>
       </c>
       <c r="D102" t="s">
-        <v>247</v>
+        <v>75</v>
       </c>
       <c r="F102" t="s">
-        <v>248</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B103" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C103" t="s">
         <v>245</v>
       </c>
+      <c r="D103" t="s">
+        <v>246</v>
+      </c>
       <c r="F103" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B104" t="s">
-        <v>241</v>
+        <v>293</v>
       </c>
       <c r="C104" t="s">
         <v>244</v>
       </c>
       <c r="F104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B105" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C105" t="s">
         <v>243</v>
       </c>
       <c r="F105" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A107" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
+        <v>237</v>
+      </c>
+      <c r="B106" t="s">
+        <v>241</v>
+      </c>
+      <c r="C106" t="s">
+        <v>242</v>
+      </c>
+      <c r="F106" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A108" t="s">
-        <v>269</v>
-      </c>
+      <c r="A108" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A109" t="s">
-        <v>270</v>
-      </c>
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>271</v>
+        <v>0</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>2</v>
+      </c>
+      <c r="D110" t="s">
+        <v>75</v>
+      </c>
+      <c r="F110" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>272</v>
+        <v>268</v>
+      </c>
+      <c r="B111" t="s">
+        <v>277</v>
+      </c>
+      <c r="C111" t="s">
+        <v>289</v>
+      </c>
+      <c r="D111" t="s">
+        <v>290</v>
+      </c>
+      <c r="F111" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
+        <v>269</v>
+      </c>
+      <c r="B112" t="s">
+        <v>278</v>
+      </c>
+      <c r="C112" t="s">
+        <v>287</v>
+      </c>
+      <c r="E112" t="s">
+        <v>291</v>
+      </c>
+      <c r="F112" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
+        <v>270</v>
+      </c>
+      <c r="B113" t="s">
+        <v>279</v>
+      </c>
+      <c r="C113" t="s">
+        <v>287</v>
+      </c>
+      <c r="E113" t="s">
+        <v>292</v>
+      </c>
+      <c r="F113" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
+        <v>271</v>
+      </c>
+      <c r="B114" t="s">
+        <v>280</v>
+      </c>
+      <c r="C114" t="s">
+        <v>287</v>
+      </c>
+      <c r="E114" t="s">
+        <v>290</v>
+      </c>
+      <c r="F114" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
+        <v>297</v>
+      </c>
+      <c r="B115" t="s">
+        <v>299</v>
+      </c>
+      <c r="C115" t="s">
+        <v>298</v>
+      </c>
+      <c r="F115" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A116" t="s">
+        <v>272</v>
+      </c>
+      <c r="B116" t="s">
+        <v>281</v>
+      </c>
+      <c r="C116" t="s">
+        <v>288</v>
+      </c>
+      <c r="F116" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A113" t="s">
+      <c r="B117" t="s">
+        <v>282</v>
+      </c>
+      <c r="C117" t="s">
+        <v>286</v>
+      </c>
+      <c r="F117" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A118" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A114" t="s">
+      <c r="B118" t="s">
+        <v>283</v>
+      </c>
+      <c r="C118" t="s">
+        <v>286</v>
+      </c>
+      <c r="F118" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A115" t="s">
+      <c r="B119" t="s">
+        <v>284</v>
+      </c>
+      <c r="C119" t="s">
+        <v>287</v>
+      </c>
+      <c r="F119" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A116" t="s">
-        <v>277</v>
+      <c r="B120" t="s">
+        <v>285</v>
+      </c>
+      <c r="C120" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="A57:F57"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A27:F27"/>
     <mergeCell ref="A43:F43"/>
     <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A87:F87"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
